--- a/Document/MeetingMinute/29052015.xlsx
+++ b/Document/MeetingMinute/29052015.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneProject\MeetingMinute\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Class</t>
   </si>
@@ -48,16 +43,6 @@
   </si>
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manage period assessment (đánh giá con người)
-remove task
-phê duyệt đánh giá, phản hồi
-view productivity assessment cho manager (1 bên đánh giá staff, 1 bên đánh giá manager)
-Staff xem đánh giá trong gia đoạn phản hồi (đồng ý và không đồng ý)
-director chỉ xem đánh giá, phê duyệt
-manager đánh giá staff
-</t>
   </si>
   <si>
     <t xml:space="preserve">assessment sửa lại thành employee assessment
@@ -69,6 +54,40 @@
   </si>
   <si>
     <t>director phê duyệt (thêm vào bảng assessment)</t>
+  </si>
+  <si>
+    <t>đã thêm</t>
+  </si>
+  <si>
+    <t>Đã sửa
+đã thêm 1 entity admin
+phân thành 2 bảng 1 bảng tách 1 bảng không
+đã fix
+quyết định đổi thành n-n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manage period assessment (đánh giá con người)
+remove task
+phê duyệt đánh giá, phản hồi
+view productivity assessment cho manager (1 bên đánh giá staff, 1 bên đánh giá manager)
+Staff xem đánh giá trong gia đoạn phản hồi (đồng ý và không đồng ý)
+director chỉ xem đánh giá, phê duyệt và đánh giá manager
+manager đánh giá staff
+</t>
+  </si>
+  <si>
+    <t>đã sửa
+đã thêm quan hệ
+đã thay đổi dtb,usecase cho phù hợp
+trước giờ vẫn thế
+đồng ý với ý kiến có phản hồi và thêm vào các trạng thái phù hợp.
+Business rule trước giờ vẫn vậy.</t>
+  </si>
+  <si>
+    <t>manages tách ra</t>
+  </si>
+  <si>
+    <t>manage đã thêm 1 bản có tách ra.</t>
   </si>
 </sst>
 </file>
@@ -92,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -142,6 +167,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,7 +454,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -458,9 +487,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -470,9 +501,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -482,9 +515,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -493,8 +528,12 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
